--- a/resultados_uniformes.xlsx
+++ b/resultados_uniformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Porcentaje</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tiene del uniforme</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Le falta tener</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,6 +504,42 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>75.0%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-06 11:40:56</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Claro</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>botas, gafas, camisa, pantalon</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>guantes, casco, polo, carnet</t>
         </is>
       </c>
     </row>

--- a/resultados_uniformes.xlsx
+++ b/resultados_uniformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,40 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-07 14:55:18</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DOMINIO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Miguel Hernandez</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>botas, gafas, camisa, pantalon</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>guantes, casco, polo, carnet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
